--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rf5d64c50dac34adb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R6f504275895e49c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R819c2a830e6e42ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R151d7052eb564846"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re04de5d99e3d459d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc71e695c781a491c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbde0ec5dae134f6a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfaa810f11f28436f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R819c2a830e6e42ff"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R151d7052eb564846"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R37d51fd9d3d74656"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="Rdc376f485ccd4dbd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc71e695c781a491c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ccc29b456a24c94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfaa810f11f28436f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2db87956f16549f7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R37d51fd9d3d74656"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="Rdc376f485ccd4dbd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb95109d8429547b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R6fa6401160814ccf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ccc29b456a24c94"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9de4879dfb81443f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2db87956f16549f7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R92d1215ed9094b2b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb95109d8429547b1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R6fa6401160814ccf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R6590f2c1e75d4262"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R7ff6b3f3ed344895"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9de4879dfb81443f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9511f5b3b3764721"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R92d1215ed9094b2b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R682453f331b64603"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R6590f2c1e75d4262"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R7ff6b3f3ed344895"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rc0050e8ff50c475b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R4baf2866d18f43aa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9511f5b3b3764721"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f4c0d3aa1ce4664"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R682453f331b64603"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b1b2d1f9b1140bf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rc0050e8ff50c475b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R4baf2866d18f43aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rf37a3f3153b54c10"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R61d5936fc02a4510"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f4c0d3aa1ce4664"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04374822bb524b5b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b1b2d1f9b1140bf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2461470aabe423f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rf37a3f3153b54c10"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R61d5936fc02a4510"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R17b39569328e49f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="Rbdc209b0e7604c8b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04374822bb524b5b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra193a5c167ae4b06"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2461470aabe423f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd437d01671e04cc6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R17b39569328e49f3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="Rbdc209b0e7604c8b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Ra543113fec274b94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R8b4f5949aa5e4694"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra193a5c167ae4b06"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab75f444a7fb4dec"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd437d01671e04cc6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87d4c77d4a2e4b97"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Ra543113fec274b94"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R8b4f5949aa5e4694"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R3cbd34ede9454191"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R22860ac76d0c40fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab75f444a7fb4dec"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4521ba900454c6f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87d4c77d4a2e4b97"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R85a0be2d56194941"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R3cbd34ede9454191"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R22860ac76d0c40fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R461b637fd6a34d6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R7e9c0d7a3a574bf5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4521ba900454c6f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra26d42882a0d4fe0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R85a0be2d56194941"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra6c72c5cf67a460f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R461b637fd6a34d6e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R7e9c0d7a3a574bf5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb25f8dbe96ee462c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R05f0e0caf1b8454e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra26d42882a0d4fe0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfde15f429444d76"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra6c72c5cf67a460f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf78730906d6641b2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb25f8dbe96ee462c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R05f0e0caf1b8454e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R611f2051dc0b46ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R466a33da30e14250"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfde15f429444d76"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra768932ddb664440"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf78730906d6641b2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2061816b4614b8b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/080_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R611f2051dc0b46ee"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R466a33da30e14250"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R0164fd0fad5a416e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R639f8ef740404b46"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra768932ddb664440"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R23f6ef65d7d04af1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -310,6 +310,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc2061816b4614b8b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0241a293e00f449d"/>
 </x:worksheet>
 </file>